--- a/tests/input/4kp50.xlsx
+++ b/tests/input/4kp50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD588AF5-9D3B-43D8-99EE-1DACE088C25E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124732B2-A2C9-4BC3-B312-8C4FA83E48F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="3465" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -2027,7 +2027,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="G2:K5"/>
+      <selection activeCell="H14" sqref="A6:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2051,16 +2051,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>269</v>
+        <v>782</v>
       </c>
       <c r="C2">
-        <v>196</v>
+        <v>755</v>
       </c>
       <c r="D2">
-        <v>134</v>
+        <v>744</v>
       </c>
       <c r="E2">
-        <v>163</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2068,16 +2068,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>168</v>
+        <v>743</v>
       </c>
       <c r="C3">
-        <v>278</v>
+        <v>770</v>
       </c>
       <c r="D3">
-        <v>159</v>
+        <v>728</v>
       </c>
       <c r="E3">
-        <v>157</v>
+        <v>727</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2085,16 +2085,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>171</v>
+        <v>739</v>
       </c>
       <c r="C4">
-        <v>209</v>
+        <v>746</v>
       </c>
       <c r="D4">
-        <v>246</v>
+        <v>769</v>
       </c>
       <c r="E4">
-        <v>193</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2102,16 +2102,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>152</v>
+        <v>727</v>
       </c>
       <c r="C5">
-        <v>172</v>
+        <v>741</v>
       </c>
       <c r="D5">
-        <v>146</v>
+        <v>735</v>
       </c>
       <c r="E5">
-        <v>261</v>
+        <v>757</v>
       </c>
     </row>
   </sheetData>

--- a/tests/input/4kp50.xlsx
+++ b/tests/input/4kp50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124732B2-A2C9-4BC3-B312-8C4FA83E48F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E37A6A7-E627-4EA8-9CD0-663645A81A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -400,7 +396,7 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1236,7 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,15 +2020,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0071402-2D78-4181-BB21-3DE3215638CB}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="A6:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2046,7 +2042,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2062,8 +2058,20 @@
       <c r="E2">
         <v>718</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>782</v>
+      </c>
+      <c r="I2">
+        <v>755</v>
+      </c>
+      <c r="J2">
+        <v>744</v>
+      </c>
+      <c r="K2">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2079,8 +2087,20 @@
       <c r="E3">
         <v>727</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>743</v>
+      </c>
+      <c r="I3">
+        <v>770</v>
+      </c>
+      <c r="J3">
+        <v>728</v>
+      </c>
+      <c r="K3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2096,8 +2116,20 @@
       <c r="E4">
         <v>725</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>739</v>
+      </c>
+      <c r="I4">
+        <v>746</v>
+      </c>
+      <c r="J4">
+        <v>769</v>
+      </c>
+      <c r="K4">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2111,6 +2143,18 @@
         <v>735</v>
       </c>
       <c r="E5">
+        <v>757</v>
+      </c>
+      <c r="H5">
+        <v>727</v>
+      </c>
+      <c r="I5">
+        <v>741</v>
+      </c>
+      <c r="J5">
+        <v>735</v>
+      </c>
+      <c r="K5">
         <v>757</v>
       </c>
     </row>
@@ -2138,8 +2182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A6850-8724-4B70-A817-487B45869133}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,16 +2207,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C2">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="D2">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="E2">
-        <v>745</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -2180,16 +2224,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>777</v>
+        <v>727</v>
       </c>
       <c r="C3">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="D3">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="E3">
-        <v>720</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -2197,16 +2241,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="C4">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="D4">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="E4">
-        <v>718</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2214,16 +2258,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>772</v>
+        <v>727</v>
       </c>
       <c r="C5">
+        <v>750</v>
+      </c>
+      <c r="D5">
         <v>757</v>
       </c>
-      <c r="D5">
-        <v>756</v>
-      </c>
       <c r="E5">
-        <v>725</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2231,16 +2275,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="C6">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="D6">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="E6">
-        <v>734</v>
+        <v>741</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2248,16 +2292,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C7">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="D7">
-        <v>744</v>
+        <v>737</v>
       </c>
       <c r="E7">
-        <v>750</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2265,16 +2309,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>759</v>
+        <v>732</v>
       </c>
       <c r="C8">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D8">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="E8">
-        <v>731</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -2282,16 +2326,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>771</v>
+        <v>732</v>
       </c>
       <c r="C9">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="D9">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="E9">
-        <v>714</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -2299,16 +2343,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>769</v>
+        <v>733</v>
       </c>
       <c r="C10">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="D10">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="E10">
-        <v>717</v>
+        <v>731</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2316,16 +2360,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="C11">
+        <v>745</v>
+      </c>
+      <c r="D11">
         <v>750</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>747</v>
-      </c>
-      <c r="E11">
-        <v>743</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -2333,16 +2377,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="C12">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="D12">
-        <v>753</v>
+        <v>746</v>
       </c>
       <c r="E12">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,16 +2394,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>782</v>
+        <v>739</v>
       </c>
       <c r="C13">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D13">
-        <v>753</v>
+        <v>769</v>
       </c>
       <c r="E13">
-        <v>713</v>
+        <v>725</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2367,16 +2411,16 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="C14">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="D14">
-        <v>751</v>
+        <v>760</v>
       </c>
       <c r="E14">
-        <v>731</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,16 +2428,16 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C15">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="D15">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="E15">
-        <v>713</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -2401,16 +2445,16 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="C16">
-        <v>763</v>
+        <v>738</v>
       </c>
       <c r="D16">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="E16">
-        <v>735</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2418,16 +2462,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>762</v>
+        <v>742</v>
       </c>
       <c r="C17">
-        <v>743</v>
+        <v>768</v>
       </c>
       <c r="D17">
         <v>744</v>
       </c>
       <c r="E17">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2435,16 +2479,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C18">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D18">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="E18">
-        <v>740</v>
+        <v>727</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2455,13 +2499,13 @@
         <v>745</v>
       </c>
       <c r="C19">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D19">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="E19">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2469,16 +2513,16 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="C20">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D20">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="E20">
-        <v>728</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2486,16 +2530,16 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="C21">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D21">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="E21">
-        <v>727</v>
+        <v>746</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2503,16 +2547,16 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="C22">
-        <v>749</v>
+        <v>763</v>
       </c>
       <c r="D22">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="E22">
-        <v>750</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2520,16 +2564,16 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="C23">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="D23">
-        <v>769</v>
+        <v>744</v>
       </c>
       <c r="E23">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2537,16 +2581,16 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>759</v>
+        <v>746</v>
       </c>
       <c r="C24">
         <v>768</v>
       </c>
       <c r="D24">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="E24">
-        <v>726</v>
+        <v>730</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,16 +2598,16 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <v>749</v>
+      </c>
+      <c r="C25">
+        <v>750</v>
+      </c>
+      <c r="D25">
+        <v>747</v>
+      </c>
+      <c r="E25">
         <v>743</v>
-      </c>
-      <c r="C25">
-        <v>770</v>
-      </c>
-      <c r="D25">
-        <v>728</v>
-      </c>
-      <c r="E25">
-        <v>727</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2571,16 +2615,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C26">
+        <v>735</v>
+      </c>
+      <c r="D26">
         <v>767</v>
       </c>
-      <c r="D26">
-        <v>744</v>
-      </c>
       <c r="E26">
-        <v>727</v>
+        <v>713</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2588,16 +2632,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C27">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="D27">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="E27">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -2605,16 +2649,16 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="C28">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="D28">
-        <v>765</v>
+        <v>761</v>
       </c>
       <c r="E28">
-        <v>726</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2622,16 +2666,16 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>732</v>
+        <v>754</v>
       </c>
       <c r="C29">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="D29">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="E29">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2639,16 +2683,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>741</v>
+        <v>758</v>
       </c>
       <c r="C30">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="D30">
-        <v>735</v>
+        <v>766</v>
       </c>
       <c r="E30">
-        <v>748</v>
+        <v>723</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2656,16 +2700,16 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>735</v>
+        <v>758</v>
       </c>
       <c r="C31">
-        <v>745</v>
+        <v>766</v>
       </c>
       <c r="D31">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E31">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2673,16 +2717,16 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="C32">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="D32">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E32">
-        <v>741</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2690,16 +2734,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C33">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="D33">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="E33">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -2707,16 +2751,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C34">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="D34">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="E34">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -2724,16 +2768,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>727</v>
+        <v>759</v>
       </c>
       <c r="C35">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="D35">
-        <v>735</v>
+        <v>765</v>
       </c>
       <c r="E35">
-        <v>757</v>
+        <v>726</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -2741,16 +2785,16 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>714</v>
+        <v>759</v>
       </c>
       <c r="C36">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D36">
-        <v>718</v>
+        <v>742</v>
       </c>
       <c r="E36">
-        <v>753</v>
+        <v>737</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -2758,16 +2802,16 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="C37">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="D37">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E37">
-        <v>752</v>
+        <v>734</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -2775,16 +2819,16 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="C38">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="D38">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="E38">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -2809,16 +2853,16 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C40">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D40">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E40">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -2826,16 +2870,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>727</v>
+        <v>771</v>
       </c>
       <c r="C41">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D41">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="E41">
-        <v>746</v>
+        <v>714</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -2843,16 +2887,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C42">
-        <v>764</v>
+        <v>752</v>
       </c>
       <c r="D42">
-        <v>752</v>
+        <v>759</v>
       </c>
       <c r="E42">
-        <v>730</v>
+        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -2860,16 +2904,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="C43">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="D43">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="E43">
-        <v>739</v>
+        <v>725</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2877,16 +2921,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>759</v>
+        <v>772</v>
       </c>
       <c r="C44">
-        <v>746</v>
+        <v>764</v>
       </c>
       <c r="D44">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="E44">
-        <v>737</v>
+        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2894,16 +2938,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>745</v>
+        <v>777</v>
       </c>
       <c r="C45">
         <v>749</v>
       </c>
       <c r="D45">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="E45">
-        <v>746</v>
+        <v>720</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -2911,16 +2955,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>742</v>
+        <v>782</v>
       </c>
       <c r="C46">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="D46">
         <v>744</v>
       </c>
       <c r="E46">
-        <v>740</v>
+        <v>718</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,19 +2972,22 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>729</v>
+        <v>782</v>
       </c>
       <c r="C47">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="D47">
         <v>753</v>
       </c>
       <c r="E47">
-        <v>741</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1:E141">
+    <sortCondition ref="B1:B141"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tests/input/4kp50.xlsx
+++ b/tests/input/4kp50.xlsx
@@ -8,17 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\whbles\pyaugmecon\tests\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E37A6A7-E627-4EA8-9CD0-663645A81A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDB17DB-64F4-4EBF-88EA-CD00C70823AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{DF6384DB-DFB1-4F3E-A725-F1DA5E529D8E}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="1" r:id="rId1"/>
     <sheet name="b" sheetId="2" r:id="rId2"/>
     <sheet name="c" sheetId="3" r:id="rId3"/>
     <sheet name="payoff_table" sheetId="5" r:id="rId4"/>
-    <sheet name="e_points" sheetId="6" r:id="rId5"/>
-    <sheet name="pareto_sols" sheetId="4" r:id="rId6"/>
+    <sheet name="pareto_sols" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -395,7 +394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DC46A5-267B-4B7C-90B0-800E9C85533E}">
   <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
@@ -2020,15 +2019,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0071402-2D78-4181-BB21-3DE3215638CB}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P5"/>
+      <selection activeCell="K5" sqref="F1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>1</v>
       </c>
@@ -2042,7 +2041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2058,20 +2057,8 @@
       <c r="E2">
         <v>718</v>
       </c>
-      <c r="H2">
-        <v>782</v>
-      </c>
-      <c r="I2">
-        <v>755</v>
-      </c>
-      <c r="J2">
-        <v>744</v>
-      </c>
-      <c r="K2">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2087,20 +2074,8 @@
       <c r="E3">
         <v>727</v>
       </c>
-      <c r="H3">
-        <v>743</v>
-      </c>
-      <c r="I3">
-        <v>770</v>
-      </c>
-      <c r="J3">
-        <v>728</v>
-      </c>
-      <c r="K3">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2116,20 +2091,8 @@
       <c r="E4">
         <v>725</v>
       </c>
-      <c r="H4">
-        <v>739</v>
-      </c>
-      <c r="I4">
-        <v>746</v>
-      </c>
-      <c r="J4">
-        <v>769</v>
-      </c>
-      <c r="K4">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2143,18 +2106,6 @@
         <v>735</v>
       </c>
       <c r="E5">
-        <v>757</v>
-      </c>
-      <c r="H5">
-        <v>727</v>
-      </c>
-      <c r="I5">
-        <v>741</v>
-      </c>
-      <c r="J5">
-        <v>735</v>
-      </c>
-      <c r="K5">
         <v>757</v>
       </c>
     </row>
@@ -2164,25 +2115,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B980400-298C-4B39-911D-DEEE2CE3B997}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A6850-8724-4B70-A817-487B45869133}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
